--- a/biology/Histoire de la zoologie et de la botanique/Kurimoto_Masayoshi/Kurimoto_Masayoshi.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Kurimoto_Masayoshi/Kurimoto_Masayoshi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Kurimoto Masayoshi (栗本 昌臧?, 1756 – 1834) est un naturaliste, zoologue et entomologiste japonais.
 Médecin de Tokugawa Ienari, 11e shogun Tokugawa, Kurimoto Masayoshi donne des conférences sur le Materia medica (en). En 1811, il rédige l'Iconographia Insectorum de Kurimoto qui recense 500 insectes japonais. En 1826, il rencontre Philipp Franz von Siebold avec qui il travaille et auquel il donne ses dessins de crustacea. L'une de ces squilla maculata, une « crevette-mante », est utilisée par Willem de Haan dans la Fauna Japonica (en) de Siebold.
